--- a/MCNP Example Runs/Ex2-4/Ex2-4.xlsx
+++ b/MCNP Example Runs/Ex2-4/Ex2-4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="378">
   <si>
     <t>Index</t>
   </si>
@@ -718,9 +718,6 @@
     <t>for:</t>
   </si>
   <si>
-    <t>Bare</t>
-  </si>
-  <si>
     <t>probid</t>
   </si>
   <si>
@@ -1159,18 +1156,9 @@
     <t>geometry</t>
   </si>
   <si>
-    <t>Notes: MCNP6 Primer Ex 2-3 (v0-1)</t>
-  </si>
-  <si>
-    <t>A bare (unreflected) Pu metal cylinder</t>
-  </si>
-  <si>
     <t>$ Pu cylinder</t>
   </si>
   <si>
-    <t>pz</t>
-  </si>
-  <si>
     <t>$ Bottom of cylinder</t>
   </si>
   <si>
@@ -1225,27 +1213,6 @@
     <t>$ 1 point source @ (0,0,8.6)</t>
   </si>
   <si>
-    <t>Ex</t>
-  </si>
-  <si>
-    <t>2-3:</t>
-  </si>
-  <si>
-    <t>(unreflected)</t>
-  </si>
-  <si>
-    <t>metal</t>
-  </si>
-  <si>
-    <t>cylinder</t>
-  </si>
-  <si>
-    <t>1.01469,</t>
-  </si>
-  <si>
-    <t>1.01534,</t>
-  </si>
-  <si>
     <t>keffs,</t>
   </si>
   <si>
@@ -1390,69 +1357,6 @@
     <t>|95/95/95|</t>
   </si>
   <si>
-    <t>1.01271-1.01534</t>
-  </si>
-  <si>
-    <t>1.01229-1.01577</t>
-  </si>
-  <si>
-    <t>|99/99/95|</t>
-  </si>
-  <si>
-    <t>1.01259-1.01541</t>
-  </si>
-  <si>
-    <t>1.01213-1.01587</t>
-  </si>
-  <si>
-    <t>1.01276-1.01573</t>
-  </si>
-  <si>
-    <t>1.01227-1.01623</t>
-  </si>
-  <si>
-    <t>1.01254-1.01593</t>
-  </si>
-  <si>
-    <t>1.01197-1.01651</t>
-  </si>
-  <si>
-    <t>1.01273-1.01585</t>
-  </si>
-  <si>
-    <t>1.01217-1.01641</t>
-  </si>
-  <si>
-    <t>1.01239-1.01605</t>
-  </si>
-  <si>
-    <t>1.01171-1.01673</t>
-  </si>
-  <si>
-    <t>1.01134-1.01627</t>
-  </si>
-  <si>
-    <t>1.01015-1.01745</t>
-  </si>
-  <si>
-    <t>1.01071-1.01774</t>
-  </si>
-  <si>
-    <t>1.00871-1.01974</t>
-  </si>
-  <si>
-    <t>1.01151-1.01604</t>
-  </si>
-  <si>
-    <t>1.00855-1.01899</t>
-  </si>
-  <si>
-    <t>1.00857-1.01798</t>
-  </si>
-  <si>
-    <t>0.98972-1.03682</t>
-  </si>
-  <si>
     <t>4.935</t>
   </si>
   <si>
@@ -1508,6 +1412,102 @@
   </si>
   <si>
     <t>$ Pu Cylinder Material</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>Notes: MCNP6 Primer Ex 2-4 (v0-1)</t>
+  </si>
+  <si>
+    <t>A Pu metal cylinder with U-reflector</t>
+  </si>
+  <si>
+    <t>Ex2-4:</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>cyl,</t>
+  </si>
+  <si>
+    <t>radial</t>
+  </si>
+  <si>
+    <t>U(nat)</t>
+  </si>
+  <si>
+    <t>reflector</t>
+  </si>
+  <si>
+    <t>0.84819,</t>
+  </si>
+  <si>
+    <t>0.84877,</t>
+  </si>
+  <si>
+    <t>0.84646-0.84877</t>
+  </si>
+  <si>
+    <t>0.84608-0.84915</t>
+  </si>
+  <si>
+    <t>0.84649-0.84899</t>
+  </si>
+  <si>
+    <t>0.84608-0.84940</t>
+  </si>
+  <si>
+    <t>0.84636-0.84895</t>
+  </si>
+  <si>
+    <t>0.84593-0.84939</t>
+  </si>
+  <si>
+    <t>0.84602-0.84903</t>
+  </si>
+  <si>
+    <t>0.84551-0.84954</t>
+  </si>
+  <si>
+    <t>0.84589-0.84922</t>
+  </si>
+  <si>
+    <t>0.84530-0.84982</t>
+  </si>
+  <si>
+    <t>0.84604-0.84942</t>
+  </si>
+  <si>
+    <t>0.84540-0.85005</t>
+  </si>
+  <si>
+    <t>0.84623-0.84897</t>
+  </si>
+  <si>
+    <t>0.84558-0.84962</t>
+  </si>
+  <si>
+    <t>|95/95/99|</t>
+  </si>
+  <si>
+    <t>0.84638-0.84920</t>
+  </si>
+  <si>
+    <t>0.84557-0.85001</t>
+  </si>
+  <si>
+    <t>0.84400-0.85134</t>
+  </si>
+  <si>
+    <t>0.83920-0.85613</t>
+  </si>
+  <si>
+    <t>0.84532-0.85025</t>
+  </si>
+  <si>
+    <t>0.83543-0.86014</t>
   </si>
 </sst>
 </file>
@@ -2283,19 +2283,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>26671</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>3811</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>621030</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>168081</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>424833</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2308,8 +2308,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="552451"/>
-          <a:ext cx="3181350" cy="3273230"/>
+          <a:off x="26671" y="567690"/>
+          <a:ext cx="3598562" cy="2941320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2636,7 +2636,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2658,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -2818,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="G34" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2854,1373 +2854,1374 @@
         <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="E10" t="s">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="F10" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" t="s">
+        <v>352</v>
+      </c>
+      <c r="H10" t="s">
+        <v>353</v>
+      </c>
+      <c r="I10" t="s">
+        <v>354</v>
+      </c>
+      <c r="J10" t="e">
+        <f>-Macrobody</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K10" t="s">
         <v>114</v>
       </c>
-      <c r="G10" t="s">
-        <v>285</v>
-      </c>
-      <c r="H10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" t="s">
-        <v>286</v>
-      </c>
-      <c r="J10" t="s">
-        <v>287</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>115</v>
-      </c>
-      <c r="L10" t="s">
-        <v>116</v>
       </c>
       <c r="M10" s="15">
         <v>40012</v>
       </c>
       <c r="N10" s="16">
-        <v>0.79781250000000004</v>
+        <v>0.88758101851851856</v>
       </c>
       <c r="O10" s="16"/>
     </row>
     <row r="13" spans="1:23">
       <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
         <v>117</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>118</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>119</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>120</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>121</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>122</v>
       </c>
-      <c r="H13" t="s">
-        <v>123</v>
-      </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="s">
         <v>124</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>125</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>126</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>127</v>
       </c>
-      <c r="P13" t="s">
-        <v>128</v>
-      </c>
       <c r="Q13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R13" t="s">
         <v>65</v>
       </c>
       <c r="S13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="B14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s">
         <v>130</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>131</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>132</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>133</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>134</v>
-      </c>
-      <c r="H14" t="s">
-        <v>135</v>
       </c>
       <c r="I14">
         <v>50</v>
       </c>
       <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
         <v>136</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>137</v>
-      </c>
-      <c r="L14" t="s">
-        <v>138</v>
       </c>
       <c r="M14" t="s">
         <v>13</v>
       </c>
       <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
         <v>139</v>
-      </c>
-      <c r="O14" t="s">
-        <v>140</v>
       </c>
       <c r="P14">
         <v>250</v>
       </c>
       <c r="Q14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R14" t="s">
+        <v>140</v>
+      </c>
+      <c r="S14" t="s">
         <v>141</v>
-      </c>
-      <c r="S14" t="s">
-        <v>142</v>
       </c>
       <c r="T14">
         <v>5000</v>
       </c>
       <c r="U14" t="s">
+        <v>142</v>
+      </c>
+      <c r="V14" t="s">
         <v>143</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>144</v>
-      </c>
-      <c r="W14" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
         <v>146</v>
       </c>
-      <c r="C15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" t="s">
-        <v>147</v>
-      </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15">
         <v>50</v>
       </c>
       <c r="G15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15">
+        <v>249654</v>
+      </c>
+      <c r="K15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" t="s">
         <v>148</v>
       </c>
-      <c r="H15" t="s">
+      <c r="M15" t="s">
         <v>136</v>
-      </c>
-      <c r="I15" t="s">
-        <v>141</v>
-      </c>
-      <c r="J15">
-        <v>250347</v>
-      </c>
-      <c r="K15" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" t="s">
-        <v>149</v>
-      </c>
-      <c r="M15" t="s">
-        <v>137</v>
       </c>
       <c r="N15">
         <v>200</v>
       </c>
       <c r="O15" t="s">
+        <v>149</v>
+      </c>
+      <c r="P15" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R15">
+        <v>999585</v>
+      </c>
+      <c r="S15" t="s">
+        <v>119</v>
+      </c>
+      <c r="T15" t="s">
         <v>150</v>
-      </c>
-      <c r="P15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>141</v>
-      </c>
-      <c r="R15">
-        <v>999718</v>
-      </c>
-      <c r="S15" t="s">
-        <v>120</v>
-      </c>
-      <c r="T15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" t="s">
         <v>146</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>152</v>
       </c>
-      <c r="D18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="s">
         <v>153</v>
       </c>
-      <c r="F18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>154</v>
       </c>
-      <c r="H18" t="s">
-        <v>155</v>
-      </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J18" t="s">
         <v>111</v>
       </c>
       <c r="K18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s">
         <v>13</v>
       </c>
       <c r="N18" t="s">
+        <v>138</v>
+      </c>
+      <c r="O18" t="s">
         <v>139</v>
       </c>
-      <c r="O18" t="s">
-        <v>140</v>
-      </c>
       <c r="P18">
-        <v>1250065</v>
+        <v>1249239</v>
       </c>
       <c r="Q18" t="s">
+        <v>118</v>
+      </c>
+      <c r="R18" t="s">
         <v>119</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>120</v>
       </c>
-      <c r="S18" t="s">
-        <v>121</v>
-      </c>
       <c r="T18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
         <v>157</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" t="s">
         <v>158</v>
       </c>
-      <c r="D19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>159</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" t="s">
         <v>160</v>
       </c>
-      <c r="G19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" t="s">
         <v>161</v>
       </c>
-      <c r="I19" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" t="s">
+        <v>119</v>
+      </c>
+      <c r="M19" t="s">
+        <v>120</v>
+      </c>
+      <c r="N19" t="s">
         <v>162</v>
-      </c>
-      <c r="K19" t="s">
-        <v>119</v>
-      </c>
-      <c r="L19" t="s">
-        <v>120</v>
-      </c>
-      <c r="M19" t="s">
-        <v>121</v>
-      </c>
-      <c r="N19" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="2:20">
       <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" t="s">
         <v>164</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>165</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>166</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>167</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" t="s">
         <v>168</v>
       </c>
-      <c r="G23" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>169</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" t="s">
         <v>170</v>
-      </c>
-      <c r="J23" t="s">
-        <v>140</v>
-      </c>
-      <c r="K23" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="9">
+        <v>4.91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="9">
-        <v>6.13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>173</v>
       </c>
-      <c r="G24" t="s">
-        <v>174</v>
-      </c>
       <c r="H24" s="9">
-        <v>2.0199999999999999E-2</v>
+        <v>2.76E-2</v>
       </c>
     </row>
     <row r="25" spans="2:20">
       <c r="B25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
         <v>175</v>
       </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" t="s">
         <v>176</v>
       </c>
-      <c r="F27" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>177</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>178</v>
       </c>
-      <c r="I27" t="s">
-        <v>179</v>
-      </c>
       <c r="J27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" t="s">
         <v>181</v>
-      </c>
-      <c r="G28" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" t="s">
         <v>167</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" t="s">
         <v>168</v>
       </c>
-      <c r="E29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>169</v>
       </c>
-      <c r="G29" t="s">
-        <v>170</v>
-      </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" t="s">
         <v>184</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" t="s">
         <v>185</v>
       </c>
-      <c r="E30" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" t="s">
         <v>186</v>
       </c>
-      <c r="G30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>187</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>188</v>
-      </c>
-      <c r="J30" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E32" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" t="s">
         <v>190</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>191</v>
-      </c>
-      <c r="G32" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="33" spans="2:24">
       <c r="B33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="2:24">
       <c r="B34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
         <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" t="s">
         <v>193</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" t="s">
         <v>194</v>
       </c>
-      <c r="H34" t="s">
-        <v>168</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>195</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
+        <v>133</v>
+      </c>
+      <c r="L34" t="s">
+        <v>116</v>
+      </c>
+      <c r="M34" t="s">
         <v>196</v>
       </c>
-      <c r="K34" t="s">
-        <v>134</v>
-      </c>
-      <c r="L34" t="s">
-        <v>117</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>197</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>198</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q34" t="s">
         <v>199</v>
-      </c>
-      <c r="P34" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>200</v>
       </c>
       <c r="R34" t="s">
         <v>111</v>
       </c>
       <c r="S34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T34" t="s">
+        <v>200</v>
+      </c>
+      <c r="U34" t="s">
         <v>201</v>
-      </c>
-      <c r="U34" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="36" spans="2:24">
       <c r="B36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" t="s">
         <v>203</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" t="s">
         <v>204</v>
       </c>
-      <c r="E36" t="s">
-        <v>178</v>
-      </c>
-      <c r="F36" t="s">
-        <v>201</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>205</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>206</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>207</v>
       </c>
-      <c r="J36" t="s">
-        <v>208</v>
-      </c>
       <c r="K36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L36">
         <v>95</v>
       </c>
       <c r="M36" t="s">
+        <v>208</v>
+      </c>
+      <c r="N36" t="s">
         <v>209</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>210</v>
-      </c>
-      <c r="O36" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="37" spans="2:24">
       <c r="B37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F37" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" t="s">
         <v>205</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>206</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>207</v>
       </c>
-      <c r="I37" t="s">
-        <v>208</v>
-      </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K37">
         <v>95</v>
       </c>
       <c r="L37" t="s">
+        <v>208</v>
+      </c>
+      <c r="M37" t="s">
         <v>209</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>210</v>
-      </c>
-      <c r="N37" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="38" spans="2:24">
       <c r="B38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" t="s">
         <v>213</v>
       </c>
-      <c r="D38" t="s">
-        <v>214</v>
-      </c>
       <c r="E38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" t="s">
         <v>205</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>206</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>207</v>
       </c>
-      <c r="J38" t="s">
-        <v>208</v>
-      </c>
       <c r="K38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L38">
         <v>95</v>
       </c>
       <c r="M38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N38" t="s">
         <v>209</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>210</v>
-      </c>
-      <c r="O38" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="41" spans="2:24">
       <c r="B41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="2:24">
       <c r="B42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="2:24">
       <c r="B43" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
         <v>216</v>
       </c>
-      <c r="C43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>217</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>218</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>219</v>
-      </c>
-      <c r="G43" t="s">
-        <v>220</v>
       </c>
       <c r="H43" t="s">
         <v>111</v>
       </c>
       <c r="I43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J43" s="18">
-        <v>1.01403</v>
+        <v>0.84760999999999997</v>
       </c>
       <c r="K43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L43" t="s">
+        <v>220</v>
+      </c>
+      <c r="M43" t="s">
+        <v>217</v>
+      </c>
+      <c r="N43" t="s">
         <v>221</v>
       </c>
-      <c r="M43" t="s">
-        <v>218</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>222</v>
       </c>
-      <c r="O43" t="s">
-        <v>223</v>
-      </c>
       <c r="P43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q43" s="18">
-        <v>6.6E-4</v>
+        <v>5.8E-4</v>
       </c>
       <c r="R43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="2:24">
       <c r="B44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="2:24">
       <c r="B45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E45" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" t="s">
         <v>224</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>225</v>
-      </c>
-      <c r="G45" t="s">
-        <v>226</v>
       </c>
       <c r="H45">
         <v>99</v>
       </c>
       <c r="I45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J45" t="s">
         <v>111</v>
       </c>
       <c r="K45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L45" t="s">
+        <v>226</v>
+      </c>
+      <c r="M45" t="s">
         <v>227</v>
       </c>
-      <c r="M45" t="s">
-        <v>228</v>
-      </c>
       <c r="N45">
-        <v>1.0133700000000001</v>
+        <v>0.84702999999999995</v>
       </c>
       <c r="O45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P45" t="s">
-        <v>288</v>
+        <v>355</v>
       </c>
       <c r="Q45">
-        <v>1.01271</v>
+        <v>0.84645999999999999</v>
       </c>
       <c r="R45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S45" t="s">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U45">
-        <v>1.0122899999999999</v>
+        <v>0.84608000000000005</v>
       </c>
       <c r="V45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W45">
-        <v>1.0157700000000001</v>
+        <v>0.84914999999999996</v>
       </c>
       <c r="X45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="2:24">
       <c r="B46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="2:24">
       <c r="B47" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
         <v>216</v>
       </c>
-      <c r="C47" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>218</v>
+      </c>
+      <c r="F47" t="s">
+        <v>228</v>
+      </c>
+      <c r="G47" t="s">
+        <v>229</v>
+      </c>
+      <c r="H47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I47" t="s">
+        <v>231</v>
+      </c>
+      <c r="J47" t="s">
+        <v>115</v>
+      </c>
+      <c r="K47" s="9">
+        <v>5.6418999999999997E-9</v>
+      </c>
+      <c r="L47" t="s">
+        <v>232</v>
+      </c>
+      <c r="M47" t="s">
+        <v>140</v>
+      </c>
+      <c r="N47" t="s">
+        <v>220</v>
+      </c>
+      <c r="O47" t="s">
         <v>217</v>
       </c>
-      <c r="E47" t="s">
-        <v>219</v>
-      </c>
-      <c r="F47" t="s">
-        <v>229</v>
-      </c>
-      <c r="G47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H47" t="s">
-        <v>231</v>
-      </c>
-      <c r="I47" t="s">
-        <v>232</v>
-      </c>
-      <c r="J47" t="s">
-        <v>116</v>
-      </c>
-      <c r="K47" s="9">
-        <v>3.6192000000000001E-9</v>
-      </c>
-      <c r="L47" t="s">
-        <v>233</v>
-      </c>
-      <c r="M47" t="s">
-        <v>141</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="P47" t="s">
         <v>221</v>
       </c>
-      <c r="O47" t="s">
-        <v>218</v>
-      </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>222</v>
       </c>
-      <c r="Q47" t="s">
-        <v>223</v>
-      </c>
       <c r="R47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S47" s="9">
-        <v>4.3953999999999996E-12</v>
+        <v>7.7229000000000005E-12</v>
       </c>
       <c r="T47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="2:24">
       <c r="B48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="2:21">
       <c r="B49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F49" t="s">
+        <v>233</v>
+      </c>
+      <c r="G49" t="s">
         <v>234</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
+        <v>118</v>
+      </c>
+      <c r="I49" t="s">
+        <v>115</v>
+      </c>
+      <c r="J49" s="9">
+        <v>1.9824999999999999</v>
+      </c>
+      <c r="K49" t="s">
         <v>235</v>
       </c>
-      <c r="H49" t="s">
-        <v>119</v>
-      </c>
-      <c r="I49" t="s">
-        <v>116</v>
-      </c>
-      <c r="J49" s="9">
-        <v>1.9273</v>
-      </c>
-      <c r="K49" t="s">
-        <v>236</v>
-      </c>
       <c r="L49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="2:21">
       <c r="B50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" t="s">
+        <v>181</v>
+      </c>
+      <c r="I50" t="s">
+        <v>119</v>
+      </c>
+      <c r="J50" t="s">
+        <v>237</v>
+      </c>
+      <c r="K50" t="s">
         <v>234</v>
       </c>
-      <c r="E50" t="s">
-        <v>237</v>
-      </c>
-      <c r="F50" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" t="s">
-        <v>117</v>
-      </c>
-      <c r="H50" t="s">
-        <v>182</v>
-      </c>
-      <c r="I50" t="s">
-        <v>120</v>
-      </c>
-      <c r="J50" t="s">
-        <v>238</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
+        <v>118</v>
+      </c>
+      <c r="M50" t="s">
+        <v>115</v>
+      </c>
+      <c r="N50" s="9">
+        <v>1.2990999999999999</v>
+      </c>
+      <c r="O50" t="s">
         <v>235</v>
       </c>
-      <c r="L50" t="s">
-        <v>119</v>
-      </c>
-      <c r="M50" t="s">
-        <v>116</v>
-      </c>
-      <c r="N50" s="9">
-        <v>1.2633000000000001</v>
-      </c>
-      <c r="O50" t="s">
-        <v>236</v>
-      </c>
       <c r="P50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="2:21">
       <c r="B51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="2:21">
       <c r="B52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
+        <v>238</v>
+      </c>
+      <c r="E52" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" t="s">
         <v>239</v>
       </c>
-      <c r="E52" t="s">
-        <v>140</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>240</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>241</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
+        <v>142</v>
+      </c>
+      <c r="J52" t="s">
         <v>242</v>
       </c>
-      <c r="I52" t="s">
-        <v>143</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
+        <v>116</v>
+      </c>
+      <c r="L52" t="s">
         <v>243</v>
       </c>
-      <c r="K52" t="s">
-        <v>117</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>244</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
+        <v>136</v>
+      </c>
+      <c r="O52" t="s">
         <v>245</v>
       </c>
-      <c r="N52" t="s">
-        <v>137</v>
-      </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q52" t="s">
         <v>246</v>
       </c>
-      <c r="P52" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>247</v>
-      </c>
       <c r="R52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="2:21">
       <c r="B53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C53" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" t="s">
         <v>248</v>
-      </c>
-      <c r="D53" t="s">
-        <v>249</v>
       </c>
       <c r="E53" s="17">
         <v>0</v>
       </c>
       <c r="F53" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" t="s">
         <v>250</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>251</v>
-      </c>
-      <c r="H53" t="s">
-        <v>252</v>
       </c>
       <c r="I53">
         <v>100</v>
       </c>
       <c r="J53" t="s">
+        <v>252</v>
+      </c>
+      <c r="K53" s="17">
+        <v>2.18E-2</v>
+      </c>
+      <c r="L53" t="s">
         <v>253</v>
       </c>
-      <c r="K53" s="17">
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="L53" t="s">
-        <v>254</v>
-      </c>
       <c r="M53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N53" s="17">
-        <v>0.97840000000000005</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="O53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="2:21">
       <c r="B54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="2:21">
       <c r="B55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" t="s">
+        <v>142</v>
+      </c>
+      <c r="G55" t="s">
+        <v>254</v>
+      </c>
+      <c r="H55" t="s">
+        <v>143</v>
+      </c>
+      <c r="I55" t="s">
         <v>119</v>
       </c>
-      <c r="F55" t="s">
-        <v>143</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="J55" t="s">
         <v>255</v>
       </c>
-      <c r="H55" t="s">
-        <v>144</v>
-      </c>
-      <c r="I55" t="s">
-        <v>120</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>256</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>257</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>258</v>
       </c>
-      <c r="M55" t="s">
-        <v>259</v>
-      </c>
       <c r="N55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O55" t="s">
+        <v>156</v>
+      </c>
+      <c r="P55" t="s">
         <v>157</v>
       </c>
-      <c r="P55" t="s">
-        <v>158</v>
-      </c>
       <c r="Q55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T55" s="9">
-        <v>3.0640000000000001</v>
+        <v>2.8974000000000002</v>
       </c>
       <c r="U55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="2:21">
       <c r="B56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" t="s">
+        <v>142</v>
+      </c>
+      <c r="G56" t="s">
+        <v>254</v>
+      </c>
+      <c r="H56" t="s">
+        <v>143</v>
+      </c>
+      <c r="I56" t="s">
         <v>119</v>
       </c>
-      <c r="F56" t="s">
-        <v>143</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="J56" t="s">
         <v>255</v>
       </c>
-      <c r="H56" t="s">
-        <v>144</v>
-      </c>
-      <c r="I56" t="s">
-        <v>120</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>256</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>257</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>258</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
+        <v>242</v>
+      </c>
+      <c r="O56" t="s">
+        <v>156</v>
+      </c>
+      <c r="P56" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q56" t="s">
         <v>259</v>
       </c>
-      <c r="N56" t="s">
-        <v>243</v>
-      </c>
-      <c r="O56" t="s">
+      <c r="R56" t="s">
         <v>157</v>
       </c>
-      <c r="P56" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>260</v>
-      </c>
-      <c r="R56" t="s">
-        <v>158</v>
-      </c>
       <c r="S56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T56" s="9">
-        <v>3.0640000000000001</v>
+        <v>2.8974000000000002</v>
       </c>
       <c r="U56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="2:21">
       <c r="B57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="2:21">
       <c r="B58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G58" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" t="s">
+        <v>254</v>
+      </c>
+      <c r="I58" t="s">
         <v>143</v>
       </c>
-      <c r="H58" t="s">
-        <v>255</v>
-      </c>
-      <c r="I58" t="s">
-        <v>144</v>
-      </c>
       <c r="J58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L58" s="18">
-        <v>3.16</v>
+        <v>3.1179999999999999</v>
       </c>
       <c r="M58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="2:21">
       <c r="B59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="2:21">
       <c r="B60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="2:21">
       <c r="B63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E63" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F63" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="G63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H63" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J63" t="s">
+        <v>223</v>
+      </c>
+      <c r="K63" t="s">
         <v>224</v>
       </c>
-      <c r="K63" t="s">
-        <v>225</v>
-      </c>
       <c r="L63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M63">
         <v>99</v>
       </c>
       <c r="N63" t="s">
+        <v>208</v>
+      </c>
+      <c r="O63" t="s">
         <v>209</v>
       </c>
-      <c r="O63" t="s">
-        <v>210</v>
-      </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="2:25">
@@ -4228,362 +4229,362 @@
         <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D65" t="s">
         <v>111</v>
       </c>
       <c r="E65" t="s">
+        <v>221</v>
+      </c>
+      <c r="F65" t="s">
         <v>222</v>
-      </c>
-      <c r="F65" t="s">
-        <v>223</v>
       </c>
       <c r="G65" s="20">
         <v>0.68</v>
       </c>
       <c r="H65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I65" s="20">
         <v>0.95</v>
       </c>
       <c r="J65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K65" s="20">
         <v>0.99</v>
       </c>
       <c r="L65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M65" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="2:25">
       <c r="B67" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C67">
-        <v>1.0129699999999999</v>
+        <v>0.84628000000000003</v>
       </c>
       <c r="D67">
-        <v>9.7999999999999997E-4</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="E67">
-        <v>1.0119899999999999</v>
+        <v>0.84545000000000003</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G67">
-        <v>1.0139499999999999</v>
+        <v>0.84711000000000003</v>
       </c>
       <c r="H67">
-        <v>1.01101</v>
+        <v>0.84462999999999999</v>
       </c>
       <c r="I67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J67">
-        <v>1.0149300000000001</v>
+        <v>0.84792999999999996</v>
       </c>
       <c r="K67">
-        <v>1.0103800000000001</v>
+        <v>0.84409999999999996</v>
       </c>
       <c r="L67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M67">
-        <v>1.01556</v>
+        <v>0.84846999999999995</v>
       </c>
     </row>
     <row r="68" spans="2:25">
       <c r="B68" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C68">
-        <v>1.0129699999999999</v>
+        <v>0.84626000000000001</v>
       </c>
       <c r="D68">
-        <v>9.7999999999999997E-4</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="E68">
-        <v>1.0119899999999999</v>
+        <v>0.84543000000000001</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G68">
-        <v>1.0139499999999999</v>
+        <v>0.84708000000000006</v>
       </c>
       <c r="H68">
-        <v>1.01101</v>
+        <v>0.84460999999999997</v>
       </c>
       <c r="I68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J68">
-        <v>1.0149300000000001</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="K68">
-        <v>1.0103800000000001</v>
+        <v>0.84406999999999999</v>
       </c>
       <c r="L68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M68">
-        <v>1.01556</v>
+        <v>0.84843999999999997</v>
       </c>
     </row>
     <row r="69" spans="2:25">
       <c r="B69" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C69" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D69">
-        <v>1.01413</v>
+        <v>0.84794000000000003</v>
       </c>
       <c r="E69">
-        <v>6.6E-4</v>
+        <v>5.9000000000000003E-4</v>
       </c>
       <c r="F69">
-        <v>1.0134700000000001</v>
+        <v>0.84735000000000005</v>
       </c>
       <c r="G69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H69">
-        <v>1.0147900000000001</v>
+        <v>0.84852000000000005</v>
       </c>
       <c r="I69">
-        <v>1.0128200000000001</v>
+        <v>0.84677000000000002</v>
       </c>
       <c r="J69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K69">
-        <v>1.0154399999999999</v>
+        <v>0.84911000000000003</v>
       </c>
       <c r="L69">
-        <v>1.0123899999999999</v>
+        <v>0.84638999999999998</v>
       </c>
       <c r="M69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N69">
-        <v>1.0158700000000001</v>
+        <v>0.84948999999999997</v>
       </c>
     </row>
     <row r="70" spans="2:25">
       <c r="B70" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C70">
-        <v>1.0129699999999999</v>
+        <v>0.84624999999999995</v>
       </c>
       <c r="D70">
-        <v>9.7999999999999997E-4</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="E70">
-        <v>1.0119899999999999</v>
+        <v>0.84541999999999995</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G70">
-        <v>1.0139499999999999</v>
+        <v>0.84708000000000006</v>
       </c>
       <c r="H70">
-        <v>1.01101</v>
+        <v>0.84460000000000002</v>
       </c>
       <c r="I70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J70">
-        <v>1.0149300000000001</v>
+        <v>0.84791000000000005</v>
       </c>
       <c r="K70">
-        <v>1.0103800000000001</v>
+        <v>0.84406000000000003</v>
       </c>
       <c r="L70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M70">
-        <v>1.01556</v>
+        <v>0.84845000000000004</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="71" spans="2:25">
       <c r="B71" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C71" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D71">
-        <v>1.01403</v>
+        <v>0.84765999999999997</v>
       </c>
       <c r="E71">
-        <v>6.6E-4</v>
+        <v>5.9000000000000003E-4</v>
       </c>
       <c r="F71">
-        <v>1.0133700000000001</v>
+        <v>0.84708000000000006</v>
       </c>
       <c r="G71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H71">
-        <v>1.0146900000000001</v>
+        <v>0.84824999999999995</v>
       </c>
       <c r="I71">
-        <v>1.01271</v>
+        <v>0.84650000000000003</v>
       </c>
       <c r="J71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K71">
-        <v>1.0153399999999999</v>
+        <v>0.84882999999999997</v>
       </c>
       <c r="L71">
-        <v>1.0122899999999999</v>
+        <v>0.84611999999999998</v>
       </c>
       <c r="M71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N71">
-        <v>1.0157700000000001</v>
+        <v>0.84921000000000002</v>
       </c>
       <c r="O71">
-        <v>0.58520000000000005</v>
+        <v>0.54379999999999995</v>
       </c>
     </row>
     <row r="72" spans="2:25">
       <c r="B72" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C72" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D72">
-        <v>1.01403</v>
+        <v>0.84767999999999999</v>
       </c>
       <c r="E72">
-        <v>6.6E-4</v>
+        <v>5.9000000000000003E-4</v>
       </c>
       <c r="F72">
-        <v>1.0133700000000001</v>
+        <v>0.84709000000000001</v>
       </c>
       <c r="G72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H72">
-        <v>1.0146900000000001</v>
+        <v>0.84826000000000001</v>
       </c>
       <c r="I72">
-        <v>1.01271</v>
+        <v>0.84650999999999998</v>
       </c>
       <c r="J72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K72">
-        <v>1.0153399999999999</v>
+        <v>0.84884000000000004</v>
       </c>
       <c r="L72">
-        <v>1.0122899999999999</v>
+        <v>0.84613000000000005</v>
       </c>
       <c r="M72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N72">
-        <v>1.0157700000000001</v>
+        <v>0.84921999999999997</v>
       </c>
       <c r="O72">
-        <v>0.58520000000000005</v>
+        <v>0.5494</v>
       </c>
     </row>
     <row r="73" spans="2:25">
       <c r="B73" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C73" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D73">
-        <v>1.01403</v>
+        <v>0.84760999999999997</v>
       </c>
       <c r="E73">
-        <v>6.6E-4</v>
+        <v>5.8E-4</v>
       </c>
       <c r="F73">
-        <v>1.0133700000000001</v>
+        <v>0.84702999999999995</v>
       </c>
       <c r="G73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H73">
-        <v>1.0146900000000001</v>
+        <v>0.84819</v>
       </c>
       <c r="I73">
-        <v>1.01271</v>
+        <v>0.84645999999999999</v>
       </c>
       <c r="J73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K73">
-        <v>1.0153399999999999</v>
+        <v>0.84877000000000002</v>
       </c>
       <c r="L73">
-        <v>1.0122899999999999</v>
+        <v>0.84608000000000005</v>
       </c>
       <c r="M73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N73">
-        <v>1.0157700000000001</v>
+        <v>0.84914999999999996</v>
       </c>
     </row>
     <row r="76" spans="2:25">
       <c r="B76" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D76" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F76" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="G76" t="s">
         <v>111</v>
       </c>
       <c r="H76" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="I76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K76" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="L76" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="M76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N76" t="s">
         <v>111</v>
@@ -4592,34 +4593,34 @@
         <v>112</v>
       </c>
       <c r="P76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q76" t="s">
+        <v>223</v>
+      </c>
+      <c r="R76" t="s">
         <v>224</v>
       </c>
-      <c r="R76" t="s">
-        <v>225</v>
-      </c>
       <c r="S76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T76">
         <v>99</v>
       </c>
       <c r="U76" t="s">
+        <v>208</v>
+      </c>
+      <c r="V76" t="s">
         <v>209</v>
       </c>
-      <c r="V76" t="s">
-        <v>210</v>
-      </c>
       <c r="W76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X76" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="Y76" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="2:25">
@@ -4627,607 +4628,607 @@
         <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D78" t="s">
         <v>111</v>
       </c>
       <c r="E78" t="s">
+        <v>221</v>
+      </c>
+      <c r="F78" t="s">
         <v>222</v>
-      </c>
-      <c r="F78" t="s">
-        <v>223</v>
       </c>
       <c r="G78" s="20">
         <v>0.68</v>
       </c>
       <c r="H78" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I78" s="20">
         <v>0.95</v>
       </c>
       <c r="J78" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K78" s="20">
         <v>0.99</v>
       </c>
       <c r="L78" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="2:25">
       <c r="B80" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C80">
-        <v>1.01319</v>
+        <v>0.84643000000000002</v>
       </c>
       <c r="D80">
-        <v>1E-3</v>
+        <v>8.4000000000000003E-4</v>
       </c>
       <c r="E80">
-        <v>1.0121899999999999</v>
+        <v>0.84558999999999995</v>
       </c>
       <c r="F80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G80">
-        <v>1.0141899999999999</v>
+        <v>0.84726999999999997</v>
       </c>
       <c r="H80">
-        <v>1.01119</v>
+        <v>0.84475999999999996</v>
       </c>
       <c r="I80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J80">
-        <v>1.01518</v>
+        <v>0.84809999999999997</v>
       </c>
       <c r="K80">
-        <v>1.01054</v>
+        <v>0.84421999999999997</v>
       </c>
       <c r="L80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M80">
-        <v>1.01583</v>
+        <v>0.84863999999999995</v>
       </c>
     </row>
     <row r="81" spans="2:20">
       <c r="B81" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C81">
-        <v>1.01319</v>
+        <v>0.84641</v>
       </c>
       <c r="D81">
-        <v>1E-3</v>
+        <v>8.4000000000000003E-4</v>
       </c>
       <c r="E81">
-        <v>1.0121899999999999</v>
+        <v>0.84557000000000004</v>
       </c>
       <c r="F81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G81">
-        <v>1.0141899999999999</v>
+        <v>0.84723999999999999</v>
       </c>
       <c r="H81">
-        <v>1.01119</v>
+        <v>0.84474000000000005</v>
       </c>
       <c r="I81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J81">
-        <v>1.01518</v>
+        <v>0.84806999999999999</v>
       </c>
       <c r="K81">
-        <v>1.01054</v>
+        <v>0.84419999999999995</v>
       </c>
       <c r="L81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M81">
-        <v>1.01583</v>
+        <v>0.84860999999999998</v>
       </c>
     </row>
     <row r="82" spans="2:20">
       <c r="B82" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C82" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D82">
-        <v>1.0142500000000001</v>
+        <v>0.84804000000000002</v>
       </c>
       <c r="E82">
-        <v>6.7000000000000002E-4</v>
+        <v>5.9000000000000003E-4</v>
       </c>
       <c r="F82">
-        <v>1.0135799999999999</v>
+        <v>0.84743999999999997</v>
       </c>
       <c r="G82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H82">
-        <v>1.01492</v>
+        <v>0.84863</v>
       </c>
       <c r="I82">
-        <v>1.01292</v>
+        <v>0.84685999999999995</v>
       </c>
       <c r="J82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K82">
-        <v>1.0155799999999999</v>
+        <v>0.84921999999999997</v>
       </c>
       <c r="L82">
-        <v>1.0124899999999999</v>
+        <v>0.84646999999999994</v>
       </c>
       <c r="M82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N82">
-        <v>1.0160100000000001</v>
+        <v>0.84960000000000002</v>
       </c>
     </row>
     <row r="83" spans="2:20">
       <c r="B83" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C83" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D83">
-        <v>1.0141800000000001</v>
+        <v>0.84774000000000005</v>
       </c>
       <c r="E83">
-        <v>6.7000000000000002E-4</v>
+        <v>5.9000000000000003E-4</v>
       </c>
       <c r="F83">
-        <v>1.0135099999999999</v>
+        <v>0.84714999999999996</v>
       </c>
       <c r="G83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H83">
-        <v>1.01485</v>
+        <v>0.84831999999999996</v>
       </c>
       <c r="I83">
-        <v>1.01285</v>
+        <v>0.84657000000000004</v>
       </c>
       <c r="J83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K83">
-        <v>1.0155099999999999</v>
+        <v>0.84889999999999999</v>
       </c>
       <c r="L83">
-        <v>1.01241</v>
+        <v>0.84619</v>
       </c>
       <c r="M83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N83">
-        <v>1.0159499999999999</v>
+        <v>0.84928000000000003</v>
       </c>
     </row>
     <row r="86" spans="2:20">
       <c r="B86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E86" t="s">
+        <v>229</v>
+      </c>
+      <c r="F86" t="s">
         <v>230</v>
       </c>
-      <c r="F86" t="s">
-        <v>231</v>
-      </c>
       <c r="G86" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H86" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="I86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J86" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="K86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L86" t="s">
+        <v>223</v>
+      </c>
+      <c r="M86" t="s">
         <v>224</v>
       </c>
-      <c r="M86" t="s">
-        <v>225</v>
-      </c>
       <c r="N86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O86">
         <v>99</v>
       </c>
       <c r="P86" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q86" t="s">
         <v>209</v>
       </c>
-      <c r="Q86" t="s">
-        <v>210</v>
-      </c>
       <c r="R86" t="s">
+        <v>226</v>
+      </c>
+      <c r="S86" t="s">
         <v>227</v>
       </c>
-      <c r="S86" t="s">
-        <v>228</v>
-      </c>
       <c r="T86" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="2:20">
       <c r="B88" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D88" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E88" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F88" s="20">
         <v>0.68</v>
       </c>
       <c r="G88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H88" s="20">
         <v>0.95</v>
       </c>
       <c r="I88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J88" s="20">
         <v>0.99</v>
       </c>
       <c r="K88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L88" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="2:20">
       <c r="B90" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C90" s="9">
-        <v>3.61319E-9</v>
+        <v>5.6295299999999997E-9</v>
       </c>
       <c r="D90" s="9">
-        <v>4.5521000000000004E-12</v>
+        <v>7.6061199999999995E-12</v>
       </c>
       <c r="E90" s="9">
-        <v>3.6086000000000001E-9</v>
+        <v>5.6219000000000002E-9</v>
       </c>
       <c r="F90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G90" s="9">
-        <v>3.6177E-9</v>
+        <v>5.6370999999999999E-9</v>
       </c>
       <c r="H90" s="9">
-        <v>3.6041E-9</v>
+        <v>5.6144E-9</v>
       </c>
       <c r="I90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J90" s="9">
-        <v>3.6223000000000002E-9</v>
+        <v>5.6446999999999997E-9</v>
       </c>
       <c r="K90" s="9">
-        <v>3.6011999999999999E-9</v>
+        <v>5.6094000000000001E-9</v>
       </c>
       <c r="L90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M90" s="9">
-        <v>3.6251999999999998E-9</v>
+        <v>5.6496E-9</v>
       </c>
     </row>
     <row r="91" spans="2:20">
       <c r="B91" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C91" s="9">
-        <v>3.61319E-9</v>
+        <v>5.6295099999999999E-9</v>
       </c>
       <c r="D91" s="9">
-        <v>4.5521000000000004E-12</v>
+        <v>7.6052400000000004E-12</v>
       </c>
       <c r="E91" s="9">
-        <v>3.6086000000000001E-9</v>
+        <v>5.6219000000000002E-9</v>
       </c>
       <c r="F91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G91" s="9">
-        <v>3.6177E-9</v>
+        <v>5.6370999999999999E-9</v>
       </c>
       <c r="H91" s="9">
-        <v>3.6041E-9</v>
+        <v>5.6144E-9</v>
       </c>
       <c r="I91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J91" s="9">
-        <v>3.6223000000000002E-9</v>
+        <v>5.6446999999999997E-9</v>
       </c>
       <c r="K91" s="9">
-        <v>3.6011999999999999E-9</v>
+        <v>5.6094000000000001E-9</v>
       </c>
       <c r="L91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M91" s="9">
-        <v>3.6251999999999998E-9</v>
+        <v>5.6496E-9</v>
       </c>
     </row>
     <row r="92" spans="2:20">
       <c r="B92" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C92" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D92" s="9">
-        <v>3.6182700000000002E-9</v>
+        <v>5.6387200000000001E-9</v>
       </c>
       <c r="E92" s="9">
-        <v>4.2527199999999997E-12</v>
+        <v>7.2472000000000001E-12</v>
       </c>
       <c r="F92" s="9">
-        <v>3.6140000000000001E-9</v>
+        <v>5.6314999999999998E-9</v>
       </c>
       <c r="G92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H92" s="9">
-        <v>3.6224999999999998E-9</v>
+        <v>5.6459999999999997E-9</v>
       </c>
       <c r="I92" s="9">
-        <v>3.6098000000000001E-9</v>
+        <v>5.6243000000000001E-9</v>
       </c>
       <c r="J92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K92" s="9">
-        <v>3.6266999999999999E-9</v>
+        <v>5.6532000000000003E-9</v>
       </c>
       <c r="L92" s="9">
-        <v>3.6070000000000001E-9</v>
+        <v>5.6195999999999999E-9</v>
       </c>
       <c r="M92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N92" s="9">
-        <v>3.6294999999999999E-9</v>
+        <v>5.6578999999999997E-9</v>
       </c>
     </row>
     <row r="93" spans="2:20">
       <c r="B93" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C93" s="9">
-        <v>3.61319E-9</v>
+        <v>5.6295099999999999E-9</v>
       </c>
       <c r="D93" s="9">
-        <v>4.5521000000000004E-12</v>
+        <v>7.6245200000000003E-12</v>
       </c>
       <c r="E93" s="9">
-        <v>3.6086000000000001E-9</v>
+        <v>5.6219000000000002E-9</v>
       </c>
       <c r="F93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G93" s="9">
-        <v>3.6177E-9</v>
+        <v>5.6370999999999999E-9</v>
       </c>
       <c r="H93" s="9">
-        <v>3.6041E-9</v>
+        <v>5.6143000000000004E-9</v>
       </c>
       <c r="I93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J93" s="9">
-        <v>3.6223000000000002E-9</v>
+        <v>5.6446999999999997E-9</v>
       </c>
       <c r="K93" s="9">
-        <v>3.6011999999999999E-9</v>
+        <v>5.6094000000000001E-9</v>
       </c>
       <c r="L93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M93" s="9">
-        <v>3.6251999999999998E-9</v>
+        <v>5.6496999999999996E-9</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.99970000000000003</v>
       </c>
     </row>
     <row r="94" spans="2:20">
       <c r="B94" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C94" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D94" s="9">
-        <v>3.6191499999999999E-9</v>
+        <v>5.6416299999999997E-9</v>
       </c>
       <c r="E94" s="9">
-        <v>4.3953700000000001E-12</v>
+        <v>7.7025399999999992E-12</v>
       </c>
       <c r="F94" s="9">
-        <v>3.6148E-9</v>
+        <v>5.6338999999999997E-9</v>
       </c>
       <c r="G94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H94" s="9">
-        <v>3.6236000000000002E-9</v>
+        <v>5.6493000000000003E-9</v>
       </c>
       <c r="I94" s="9">
-        <v>3.6103999999999999E-9</v>
+        <v>5.6262999999999999E-9</v>
       </c>
       <c r="J94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K94" s="9">
-        <v>3.6278999999999998E-9</v>
+        <v>5.6569999999999998E-9</v>
       </c>
       <c r="L94" s="9">
-        <v>3.6074999999999998E-9</v>
+        <v>5.6213E-9</v>
       </c>
       <c r="M94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N94" s="9">
-        <v>3.6307999999999999E-9</v>
+        <v>5.6619999999999997E-9</v>
       </c>
       <c r="O94">
-        <v>0.95169999999999999</v>
+        <v>0.97160000000000002</v>
       </c>
     </row>
     <row r="95" spans="2:20">
       <c r="B95" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C95" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D95" s="9">
-        <v>3.6191499999999999E-9</v>
+        <v>5.6414099999999999E-9</v>
       </c>
       <c r="E95" s="9">
-        <v>4.3953700000000001E-12</v>
+        <v>7.6895799999999996E-12</v>
       </c>
       <c r="F95" s="9">
-        <v>3.6148E-9</v>
+        <v>5.6336999999999997E-9</v>
       </c>
       <c r="G95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H95" s="9">
-        <v>3.6236000000000002E-9</v>
+        <v>5.6491000000000003E-9</v>
       </c>
       <c r="I95" s="9">
-        <v>3.6103999999999999E-9</v>
+        <v>5.6260999999999998E-9</v>
       </c>
       <c r="J95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K95" s="9">
-        <v>3.6278999999999998E-9</v>
+        <v>5.6567000000000001E-9</v>
       </c>
       <c r="L95" s="9">
-        <v>3.6074999999999998E-9</v>
+        <v>5.6211E-9</v>
       </c>
       <c r="M95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N95" s="9">
-        <v>3.6307999999999999E-9</v>
+        <v>5.6617E-9</v>
       </c>
       <c r="O95">
-        <v>0.95169999999999999</v>
+        <v>0.97060000000000002</v>
       </c>
     </row>
     <row r="96" spans="2:20">
       <c r="B96" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C96" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D96" s="9">
-        <v>3.6191499999999999E-9</v>
+        <v>5.64188E-9</v>
       </c>
       <c r="E96" s="9">
-        <v>4.3953700000000001E-12</v>
+        <v>7.7229300000000001E-12</v>
       </c>
       <c r="F96" s="9">
-        <v>3.6148E-9</v>
+        <v>5.6340999999999998E-9</v>
       </c>
       <c r="G96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H96" s="9">
-        <v>3.6236000000000002E-9</v>
+        <v>5.6496E-9</v>
       </c>
       <c r="I96" s="9">
-        <v>3.6103999999999999E-9</v>
+        <v>5.6265E-9</v>
       </c>
       <c r="J96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K96" s="9">
-        <v>3.6278999999999998E-9</v>
+        <v>5.6573000000000003E-9</v>
       </c>
       <c r="L96" s="9">
-        <v>3.6074999999999998E-9</v>
+        <v>5.6215000000000001E-9</v>
       </c>
       <c r="M96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N96" s="9">
-        <v>3.6307999999999999E-9</v>
+        <v>5.6623000000000002E-9</v>
       </c>
     </row>
     <row r="98" spans="1:22">
       <c r="B98" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C98" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F98" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G98" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:22">
       <c r="B100" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C100" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -5235,13 +5236,13 @@
         <v>88</v>
       </c>
       <c r="C102" s="9">
-        <v>0.66979200000000005</v>
+        <v>0.70852199999999999</v>
       </c>
       <c r="D102" s="9">
-        <v>9.99741E-3</v>
+        <v>2.06555E-2</v>
       </c>
       <c r="E102" s="9">
-        <v>0.32021100000000002</v>
+        <v>0.27082299999999998</v>
       </c>
       <c r="F102" s="9">
         <v>1</v>
@@ -5249,53 +5250,53 @@
     </row>
     <row r="103" spans="1:22">
       <c r="B103" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C103" s="9">
-        <v>5.3944900000000001E-9</v>
+        <v>7.9454199999999992E-9</v>
       </c>
       <c r="D103" s="9">
-        <v>3.6141200000000001E-7</v>
+        <v>2.7254199999999998E-7</v>
       </c>
       <c r="E103" s="9">
-        <v>1.1283799999999999E-8</v>
+        <v>2.07867E-8</v>
       </c>
       <c r="F103" s="9">
-        <v>3.61319E-9</v>
+        <v>5.6295099999999999E-9</v>
       </c>
     </row>
     <row r="104" spans="1:22">
       <c r="B104" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C104" s="9">
-        <v>5.4033999999999998E-9</v>
+        <v>7.9628799999999997E-9</v>
       </c>
       <c r="D104" s="9">
-        <v>3.6200900000000002E-7</v>
+        <v>2.73141E-7</v>
       </c>
       <c r="E104" s="9">
-        <v>1.1302399999999999E-8</v>
+        <v>2.0832399999999999E-8</v>
       </c>
       <c r="F104" s="9">
-        <v>3.6191499999999999E-9</v>
+        <v>5.64188E-9</v>
       </c>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B106" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D106" t="s">
+        <v>218</v>
+      </c>
+      <c r="E106" t="s">
         <v>219</v>
-      </c>
-      <c r="E106" t="s">
-        <v>220</v>
       </c>
       <c r="F106" t="s">
         <v>111</v>
@@ -5304,66 +5305,66 @@
         <v>112</v>
       </c>
       <c r="H106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I106">
         <v>10</v>
       </c>
       <c r="J106" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K106" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="L106" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:22">
       <c r="B108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F108" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G108" t="s">
         <v>111</v>
       </c>
       <c r="H108" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="I108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J108" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L108" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M108" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="N108" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O108" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -5371,64 +5372,64 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
+        <v>313</v>
+      </c>
+      <c r="D109" t="s">
+        <v>318</v>
+      </c>
+      <c r="E109" t="s">
+        <v>319</v>
+      </c>
+      <c r="F109" t="s">
+        <v>320</v>
+      </c>
+      <c r="G109" t="s">
+        <v>321</v>
+      </c>
+      <c r="H109" t="s">
+        <v>322</v>
+      </c>
+      <c r="I109" t="s">
+        <v>323</v>
+      </c>
+      <c r="J109" t="s">
+        <v>321</v>
+      </c>
+      <c r="K109" t="s">
+        <v>322</v>
+      </c>
+      <c r="L109" t="s">
         <v>324</v>
       </c>
-      <c r="D109" t="s">
-        <v>329</v>
-      </c>
-      <c r="E109" t="s">
-        <v>330</v>
-      </c>
-      <c r="F109" t="s">
-        <v>331</v>
-      </c>
-      <c r="G109" t="s">
-        <v>332</v>
-      </c>
-      <c r="H109" t="s">
-        <v>333</v>
-      </c>
-      <c r="I109" t="s">
-        <v>334</v>
-      </c>
-      <c r="J109" t="s">
-        <v>332</v>
-      </c>
-      <c r="K109" t="s">
-        <v>333</v>
-      </c>
-      <c r="L109" t="s">
-        <v>335</v>
-      </c>
       <c r="M109" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="N109" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="O109" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="P109" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="Q109" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="R109" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="S109" s="20">
         <v>0.95</v>
       </c>
       <c r="T109" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U109" s="20">
         <v>0.99</v>
       </c>
       <c r="V109" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -5439,40 +5440,40 @@
         <v>200</v>
       </c>
       <c r="D111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E111">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="F111">
-        <v>1E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G111">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="H111">
-        <v>1E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="I111">
-        <v>1.0141</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="J111">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="K111" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="L111">
-        <v>1.01403</v>
+        <v>0.84760999999999997</v>
       </c>
       <c r="M111">
-        <v>6.6E-4</v>
+        <v>5.8E-4</v>
       </c>
       <c r="N111" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="O111" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -5483,40 +5484,40 @@
         <v>100</v>
       </c>
       <c r="D112" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E112">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="F112">
-        <v>1E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G112">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="H112">
-        <v>1E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="I112">
-        <v>1.0141</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="J112">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="K112" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="L112">
-        <v>1.014</v>
+        <v>0.84774000000000005</v>
       </c>
       <c r="M112">
-        <v>7.1000000000000002E-4</v>
+        <v>6.3000000000000003E-4</v>
       </c>
       <c r="N112" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="O112" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="2:15">
@@ -5527,40 +5528,40 @@
         <v>50</v>
       </c>
       <c r="D113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E113">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="F113">
-        <v>1E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G113">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="H113">
-        <v>1E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="I113">
-        <v>1.0141</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="J113">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="K113" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="L113">
-        <v>1.0142500000000001</v>
+        <v>0.84765999999999997</v>
       </c>
       <c r="M113">
-        <v>7.3999999999999999E-4</v>
+        <v>6.4000000000000005E-4</v>
       </c>
       <c r="N113" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="O113" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
     </row>
     <row r="114" spans="2:15">
@@ -5571,40 +5572,40 @@
         <v>40</v>
       </c>
       <c r="D114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E114">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="F114">
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G114">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="H114">
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="I114">
-        <v>1.0141</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="J114">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="K114" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="L114">
-        <v>1.01424</v>
+        <v>0.84752000000000005</v>
       </c>
       <c r="M114">
-        <v>8.4000000000000003E-4</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="N114" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="O114" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
     </row>
     <row r="115" spans="2:15">
@@ -5615,40 +5616,40 @@
         <v>25</v>
       </c>
       <c r="D115" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E115">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="F115">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G115">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="H115">
-        <v>1E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="I115">
-        <v>1.0141</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="J115">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="K115" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="L115">
-        <v>1.0142899999999999</v>
+        <v>0.84755999999999998</v>
       </c>
       <c r="M115">
-        <v>7.5000000000000002E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="N115" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="O115" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
     </row>
     <row r="116" spans="2:15">
@@ -5659,40 +5660,40 @@
         <v>20</v>
       </c>
       <c r="D116" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E116">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="F116">
-        <v>1.1000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G116">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="H116">
-        <v>1.1000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="I116">
-        <v>1.0141</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="J116">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="K116" t="s">
+        <v>326</v>
+      </c>
+      <c r="L116">
+        <v>0.84772999999999998</v>
+      </c>
+      <c r="M116">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="K116" t="s">
-        <v>337</v>
-      </c>
-      <c r="L116">
-        <v>1.0142199999999999</v>
-      </c>
-      <c r="M116">
-        <v>8.7000000000000001E-4</v>
-      </c>
       <c r="N116" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="O116" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="2:15">
@@ -5703,40 +5704,40 @@
         <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E117">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="F117">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="G117">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="H117">
-        <v>8.9999999999999998E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I117">
-        <v>1.0141</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="J117">
-        <v>8.9999999999999998E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="K117" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="L117">
-        <v>1.0138</v>
+        <v>0.84760000000000002</v>
       </c>
       <c r="M117">
-        <v>1.0399999999999999E-3</v>
+        <v>5.8E-4</v>
       </c>
       <c r="N117" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="O117" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
     </row>
     <row r="118" spans="2:15">
@@ -5747,40 +5748,40 @@
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E118">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="F118">
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G118">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="H118">
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="I118">
-        <v>1.0141</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="J118">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="K118" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="L118">
-        <v>1.01423</v>
+        <v>0.84779000000000004</v>
       </c>
       <c r="M118">
-        <v>1.3699999999999999E-3</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="N118" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="O118" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
     </row>
     <row r="119" spans="2:15">
@@ -5791,40 +5792,40 @@
         <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E119">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="F119">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G119">
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="H119">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="I119">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="J119">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G119">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="H119">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I119">
-        <v>1.0141</v>
-      </c>
-      <c r="J119">
-        <v>4.0000000000000002E-4</v>
-      </c>
       <c r="K119" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="L119">
-        <v>1.0137700000000001</v>
+        <v>0.84767000000000003</v>
       </c>
       <c r="M119">
-        <v>5.2999999999999998E-4</v>
+        <v>8.4999999999999995E-4</v>
       </c>
       <c r="N119" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="O119" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" spans="2:15">
@@ -5835,45 +5836,45 @@
         <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E120">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="F120">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="G120">
-        <v>1.0129999999999999</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="H120">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="I120">
-        <v>1.0141</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="J120">
-        <v>5.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="K120" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="L120">
-        <v>1.0132699999999999</v>
+        <v>0.84779000000000004</v>
       </c>
       <c r="M120">
-        <v>3.6999999999999999E-4</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="N120" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="O120" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="2:15">
       <c r="B121" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5901,8 +5902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5927,97 +5928,97 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="9"/>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="9"/>
       <c r="C13" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E13">
         <v>18.8</v>
       </c>
       <c r="F13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="9"/>
       <c r="C14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E14" s="23">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="9"/>
       <c r="C15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="F15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="F16" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="9"/>
       <c r="C17" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="D17" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="E17" s="14">
         <f>E15+5</f>
         <v>9.9349999999999987</v>
       </c>
       <c r="F17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6031,7 +6032,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H23" sqref="H18:H23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6104,10 +6105,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -6124,10 +6125,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -6146,10 +6147,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="D20" s="19">
         <v>0</v>
@@ -6159,7 +6160,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19" t="str">
         <f>A20&amp;" "&amp;C20&amp;" "&amp;D20&amp;" "&amp;E20&amp;" "&amp;F20&amp;" "&amp;G20&amp;" "&amp;B20</f>
-        <v>2 pz 0    $ Bottom of cylinder</v>
+        <v>2 px 0    $ Bottom of cylinder</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6167,10 +6168,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="D21" s="21" t="str">
         <f>General!E16</f>
@@ -6181,15 +6182,15 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19" t="str">
         <f>A21&amp;" "&amp;C21&amp;" "&amp;D21&amp;" "&amp;E21&amp;" "&amp;F21&amp;" "&amp;G21&amp;" "&amp;B21</f>
-        <v>3 pz 6.909    $ Top of cylinder</v>
+        <v>3 px 6.909    $ Top of cylinder</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="H22" s="19" t="str">
         <f t="shared" ref="H22:H23" si="0">A22&amp;" "&amp;C22&amp;" "&amp;D22&amp;" "&amp;E22&amp;" "&amp;F22&amp;" "&amp;G22&amp;" "&amp;B22</f>
@@ -6201,10 +6202,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="G23" s="13">
         <f>General!E17</f>
@@ -6229,8 +6230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H18:H22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6283,10 +6284,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H18" t="str">
         <f>A18&amp;" "&amp;C18&amp;" "&amp;D18&amp;" "&amp;E18&amp;" "&amp;F18&amp;" "&amp;G18&amp;" "&amp;B18</f>
@@ -6298,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -6308,7 +6309,7 @@
         <v>-15</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G19" t="s">
         <v>108</v>
@@ -6323,7 +6324,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -6333,7 +6334,7 @@
         <v>-18.8</v>
       </c>
       <c r="E20" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="G20" t="s">
         <v>108</v>
@@ -6345,10 +6346,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="13"/>
@@ -6368,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="G22" t="s">
         <v>109</v>
@@ -6661,7 +6662,7 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C27">
         <v>3.5</v>
@@ -6691,8 +6692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6750,7 +6751,7 @@
         <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6762,10 +6763,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="B12" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="E12" t="str">
         <f>A12&amp;" "&amp;B28&amp;" "&amp;D12&amp;" "&amp;B12</f>
@@ -6777,7 +6778,7 @@
         <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="E16" t="s">
         <v>100</v>
@@ -6838,10 +6839,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E20" t="s">
         <v>100</v>
@@ -6878,13 +6879,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="C22">
         <v>92</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="E22" t="str">
         <f>C22&amp;D22&amp;$F$16</f>
@@ -6900,13 +6901,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="C23">
         <v>92</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="E23" t="str">
         <f>C23&amp;D23&amp;$F$16</f>
@@ -6942,7 +6943,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="B28" t="str">
         <f>G22&amp;" "&amp;G23</f>
